--- a/data/hotels_by_city/Houston/Houston_shard_328.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_328.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223178-Reviews-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-North-Intercontinental.h328273.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531274926045&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=06c10141-49fd-44fe-8145-8fa4d62a0b27&amp;mctc=9&amp;exp_dp=85&amp;exp_ts=1531274926696&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,541 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r573734815-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223178</t>
+  </si>
+  <si>
+    <t>573734815</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is a bit older and the room I had was outdated. Regardless of the dated room, the room was very clean. The bed was great and comfortable, and the room was bigger than I had expected. Staff at check in (I believe his name was Wes) was extremely hospitable and welcoming. I, too, work in the hospitality industry (and I am a member of management), and Wes was an exceptional Guest Service Agent. When I arrived, he was busy assisting a guest, but he acknowledged my presence and told me he would be with me shortly. He was attentive and made me aware that he was available to me for any inconvenience that I may encounter. Great job, Wes!!I did have a problem with the WiFi. It was nonexistent...at least in my room on the further end of the hotel. Normally, this would be a problem, but the friendliness of the staff and cleanliness of the room made up for it. I did not alert Wes, as I'm sure there was nothing he could remotely do about this minuscule problem.Overall, the room was clean and breakfast was nice. The staff I've encountered were great. I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The hotel is a bit older and the room I had was outdated. Regardless of the dated room, the room was very clean. The bed was great and comfortable, and the room was bigger than I had expected. Staff at check in (I believe his name was Wes) was extremely hospitable and welcoming. I, too, work in the hospitality industry (and I am a member of management), and Wes was an exceptional Guest Service Agent. When I arrived, he was busy assisting a guest, but he acknowledged my presence and told me he would be with me shortly. He was attentive and made me aware that he was available to me for any inconvenience that I may encounter. Great job, Wes!!I did have a problem with the WiFi. It was nonexistent...at least in my room on the further end of the hotel. Normally, this would be a problem, but the friendliness of the staff and cleanliness of the room made up for it. I did not alert Wes, as I'm sure there was nothing he could remotely do about this minuscule problem.Overall, the room was clean and breakfast was nice. The staff I've encountered were great. I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r528752485-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528752485</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Airport Shuttle issue is true!!</t>
+  </si>
+  <si>
+    <t>I gave this hotel a very good rating in a previous visit and have to knock it down to a generous 2-star on my recent re-visit.  Another reviewer "Rich P" posted about the airport shuttle problem and he is right as it can be.  The feedback from the hotel manager shows a general lack of awareness on its own staff and what they are telling guests, or they are intentionally misleading guests as a way to sell this as an airport hotel.  Read on...
+I was in Houston for a business trip and because I had an early flight, I always move closer to the airport and get rid of my rental car the night before.  This has been a standard practice for me, for years, if i had an early flight.  This hotel advertise as an airport area hotel and offers airport shuttles.  Unaware of "Rich P"'s review about the issue, I called the hotel before booking to ask about the shuttle and a lady clearly told me it's 24-hours and I just need to call from the airport for pickup, and arrange with the front desk if i need to go to the airport and they would run the shuttle at least once every 30 min, in addition to transporting airline crew that was staying at the hotel.  What happened was anything but that...  And I would never use this hotel again if I need an airport shuttle....I gave this hotel a very good rating in a previous visit and have to knock it down to a generous 2-star on my recent re-visit.  Another reviewer "Rich P" posted about the airport shuttle problem and he is right as it can be.  The feedback from the hotel manager shows a general lack of awareness on its own staff and what they are telling guests, or they are intentionally misleading guests as a way to sell this as an airport hotel.  Read on...I was in Houston for a business trip and because I had an early flight, I always move closer to the airport and get rid of my rental car the night before.  This has been a standard practice for me, for years, if i had an early flight.  This hotel advertise as an airport area hotel and offers airport shuttles.  Unaware of "Rich P"'s review about the issue, I called the hotel before booking to ask about the shuttle and a lady clearly told me it's 24-hours and I just need to call from the airport for pickup, and arrange with the front desk if i need to go to the airport and they would run the shuttle at least once every 30 min, in addition to transporting airline crew that was staying at the hotel.  What happened was anything but that...  And I would never use this hotel again if I need an airport shuttle.As a Spire level member, I travel so much that know enough about the airline and hotel industry to write a book and what I experienced during my visit is unacceptable.  The front desk lady keeps changing her story about the shuttle schedule and operation when both my coworker and I requested our rides.  She told us different departing schedule, which were all not true.  Let me be clear - the hotel DOES NOT have a free to use 24 hour shuttle to its normal guests!!  Pure lie on the website and what the lady told me on the phone.The truth is the hotel signed a contract with an airline, which I believe is Air Canada Express, and as a part of the contract, they are required to provide transportation to/from IAH for the airline crew.  These crews leave the hotel in the morning at set hours and have pickup at the airport at set hours.  The minivan the hotel has is mainly used to provide transportation for the crew per their contract.  Normal guest needs are scheduled around these numerous aircrew drop offs and pick ups, if you are lucky.  The shuttle schedule is also not 24-hrs and is bound by the schedule of the first flight of departing crew and last flight of arriving crew.  The minivan is a standard family minivan, with 4 seats and 2nd and 3rd row, and an extra seat in the front passenger side.  The 4 seats and trunk space are all used up by the Air Canada Express crew, which flies a regional jet (hence the Express name), which consist of 2 pilots and 2 cabin crews.  At most, you can squeeze in another passenger and he/she has to agree to let the aircrew stack their luggage on top.I needed a ride to the airport and the front desk lady said I can't use the 6AM slot, because the crew uses it.  She said I can use the 6:30AM, which later turn out to be completely false!  Sensing she is fully of excuses and bad information, I arrived at the lobby before 6AM and asked if I can sit in the front passenger side empty seat, which the driver agreed.  What I saw is the airline crew come down to the lobby little before 6AM, and they eat their breakfast and leave at 6:15AM (similar to what the driver told me the night before).  The ride to the airport is about 20 minutes and we arrived at 6:35AM.  There is no way, they could do another departure from the hotel at 6:30AM, when the minivan still at the airport at 6:35am.  Another 20 min or so drive back to the hotel (assume they didn't have anyone to pickup) would put the van back on the hotel at around 6:55AM, just in time for the next ride at 7AM.Having experienced this, I alerted my coworker to take the 8AM slot and ride in the front passenger seat instead of the 8:30AM slot the front desk suggested, but my coworker didn't do that and fell victim of front desk's false information.  He came down before 8:30AM but there was no van and he had to wait for pick it to nearly 9AM, just as I had predicted.  The was compounded by airport traffic at that hour which cause him to nearly miss his 10:30AM flight.The night before, I called for the ride after I dropped off my rental car at IAH.  My wait time at the arrival gate was nearly an hour.  I took me nearly 1.5 hours to get back to the hotel after I called for the ride standing the arrival gate.  The hotel just made me wait, without telling me, to align the pickup to match an arriving Air Canada Express crew.I don't care what other excuses the hotel manager may come up with, but the shuttle here is not intended for guest use and it's here to fulfill the airline crew contract.  Selling yourself as an airport hotel without a solid usable shuttle is no excuse and putting your guest at risk of missing their flight, even though they planned a lot of extra time, is just a bad way of doing business and in a way very evil.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>I gave this hotel a very good rating in a previous visit and have to knock it down to a generous 2-star on my recent re-visit.  Another reviewer "Rich P" posted about the airport shuttle problem and he is right as it can be.  The feedback from the hotel manager shows a general lack of awareness on its own staff and what they are telling guests, or they are intentionally misleading guests as a way to sell this as an airport hotel.  Read on...
+I was in Houston for a business trip and because I had an early flight, I always move closer to the airport and get rid of my rental car the night before.  This has been a standard practice for me, for years, if i had an early flight.  This hotel advertise as an airport area hotel and offers airport shuttles.  Unaware of "Rich P"'s review about the issue, I called the hotel before booking to ask about the shuttle and a lady clearly told me it's 24-hours and I just need to call from the airport for pickup, and arrange with the front desk if i need to go to the airport and they would run the shuttle at least once every 30 min, in addition to transporting airline crew that was staying at the hotel.  What happened was anything but that...  And I would never use this hotel again if I need an airport shuttle....I gave this hotel a very good rating in a previous visit and have to knock it down to a generous 2-star on my recent re-visit.  Another reviewer "Rich P" posted about the airport shuttle problem and he is right as it can be.  The feedback from the hotel manager shows a general lack of awareness on its own staff and what they are telling guests, or they are intentionally misleading guests as a way to sell this as an airport hotel.  Read on...I was in Houston for a business trip and because I had an early flight, I always move closer to the airport and get rid of my rental car the night before.  This has been a standard practice for me, for years, if i had an early flight.  This hotel advertise as an airport area hotel and offers airport shuttles.  Unaware of "Rich P"'s review about the issue, I called the hotel before booking to ask about the shuttle and a lady clearly told me it's 24-hours and I just need to call from the airport for pickup, and arrange with the front desk if i need to go to the airport and they would run the shuttle at least once every 30 min, in addition to transporting airline crew that was staying at the hotel.  What happened was anything but that...  And I would never use this hotel again if I need an airport shuttle.As a Spire level member, I travel so much that know enough about the airline and hotel industry to write a book and what I experienced during my visit is unacceptable.  The front desk lady keeps changing her story about the shuttle schedule and operation when both my coworker and I requested our rides.  She told us different departing schedule, which were all not true.  Let me be clear - the hotel DOES NOT have a free to use 24 hour shuttle to its normal guests!!  Pure lie on the website and what the lady told me on the phone.The truth is the hotel signed a contract with an airline, which I believe is Air Canada Express, and as a part of the contract, they are required to provide transportation to/from IAH for the airline crew.  These crews leave the hotel in the morning at set hours and have pickup at the airport at set hours.  The minivan the hotel has is mainly used to provide transportation for the crew per their contract.  Normal guest needs are scheduled around these numerous aircrew drop offs and pick ups, if you are lucky.  The shuttle schedule is also not 24-hrs and is bound by the schedule of the first flight of departing crew and last flight of arriving crew.  The minivan is a standard family minivan, with 4 seats and 2nd and 3rd row, and an extra seat in the front passenger side.  The 4 seats and trunk space are all used up by the Air Canada Express crew, which flies a regional jet (hence the Express name), which consist of 2 pilots and 2 cabin crews.  At most, you can squeeze in another passenger and he/she has to agree to let the aircrew stack their luggage on top.I needed a ride to the airport and the front desk lady said I can't use the 6AM slot, because the crew uses it.  She said I can use the 6:30AM, which later turn out to be completely false!  Sensing she is fully of excuses and bad information, I arrived at the lobby before 6AM and asked if I can sit in the front passenger side empty seat, which the driver agreed.  What I saw is the airline crew come down to the lobby little before 6AM, and they eat their breakfast and leave at 6:15AM (similar to what the driver told me the night before).  The ride to the airport is about 20 minutes and we arrived at 6:35AM.  There is no way, they could do another departure from the hotel at 6:30AM, when the minivan still at the airport at 6:35am.  Another 20 min or so drive back to the hotel (assume they didn't have anyone to pickup) would put the van back on the hotel at around 6:55AM, just in time for the next ride at 7AM.Having experienced this, I alerted my coworker to take the 8AM slot and ride in the front passenger seat instead of the 8:30AM slot the front desk suggested, but my coworker didn't do that and fell victim of front desk's false information.  He came down before 8:30AM but there was no van and he had to wait for pick it to nearly 9AM, just as I had predicted.  The was compounded by airport traffic at that hour which cause him to nearly miss his 10:30AM flight.The night before, I called for the ride after I dropped off my rental car at IAH.  My wait time at the arrival gate was nearly an hour.  I took me nearly 1.5 hours to get back to the hotel after I called for the ride standing the arrival gate.  The hotel just made me wait, without telling me, to align the pickup to match an arriving Air Canada Express crew.I don't care what other excuses the hotel manager may come up with, but the shuttle here is not intended for guest use and it's here to fulfill the airline crew contract.  Selling yourself as an airport hotel without a solid usable shuttle is no excuse and putting your guest at risk of missing their flight, even though they planned a lot of extra time, is just a bad way of doing business and in a way very evil.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r515511686-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515511686</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>24 Hour Airport Shuttle is not 24 hours! Worst customer service</t>
+  </si>
+  <si>
+    <t>On our way back from vacation, we landed in Houston late with our connection flight the next day. Since this hotel offers 24 hour airport shuttle service (20 minutes away), we stayed here. At check-in I asked the lady at the front desk if we need to reserve the airport shuttle for the next day. Her response was, "oh no sir, it's available 24 hours a day." At 12:30 pm the next day, I went to the front desk and requested the shuttle for around 1:00 pm. The front desk supervisor tells me that the shuttle will not be available until 1:45 pm because they have an airline crew staying there and that's when they need it by and the shuttle can not be used before then just in case the airline calls them in early.
+I asked them how my family of 7 is going to get to the airport so we won't miss our flights to which she replies that she can call me a cab. I asked if they were going to pay for the cab since they advertise 24 hour airport shuttle which is not available. She replied that "there is nothing I can do." Then she started to argue with me that they do have a 24 hour shuttle, it just not available until 1:45 pm. I felt like I was on that episode of Seinfeld where he tried to reserved a rental car.
+I...On our way back from vacation, we landed in Houston late with our connection flight the next day. Since this hotel offers 24 hour airport shuttle service (20 minutes away), we stayed here. At check-in I asked the lady at the front desk if we need to reserve the airport shuttle for the next day. Her response was, "oh no sir, it's available 24 hours a day." At 12:30 pm the next day, I went to the front desk and requested the shuttle for around 1:00 pm. The front desk supervisor tells me that the shuttle will not be available until 1:45 pm because they have an airline crew staying there and that's when they need it by and the shuttle can not be used before then just in case the airline calls them in early.I asked them how my family of 7 is going to get to the airport so we won't miss our flights to which she replies that she can call me a cab. I asked if they were going to pay for the cab since they advertise 24 hour airport shuttle which is not available. She replied that "there is nothing I can do." Then she started to argue with me that they do have a 24 hour shuttle, it just not available until 1:45 pm. I felt like I was on that episode of Seinfeld where he tried to reserved a rental car.I asked to speak to a manager to which she replied no. My frustration built after arguing back and forth and I softly called her a name under my breath. At that point she went ballistic and start screaming at me and then called the POLICE saying I was trespassing since it's now past checkout time.I called their guest relations and filed a report to complain about her actions. However, they still could do nothing about getting my family and I to the airport. I was left with the impression that nothing will be done about it.We got an Uber ride for $35 and was able to make our flight. IHG/Holiday Inn, you lost a customer for life that had a $35 solution.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>On our way back from vacation, we landed in Houston late with our connection flight the next day. Since this hotel offers 24 hour airport shuttle service (20 minutes away), we stayed here. At check-in I asked the lady at the front desk if we need to reserve the airport shuttle for the next day. Her response was, "oh no sir, it's available 24 hours a day." At 12:30 pm the next day, I went to the front desk and requested the shuttle for around 1:00 pm. The front desk supervisor tells me that the shuttle will not be available until 1:45 pm because they have an airline crew staying there and that's when they need it by and the shuttle can not be used before then just in case the airline calls them in early.
+I asked them how my family of 7 is going to get to the airport so we won't miss our flights to which she replies that she can call me a cab. I asked if they were going to pay for the cab since they advertise 24 hour airport shuttle which is not available. She replied that "there is nothing I can do." Then she started to argue with me that they do have a 24 hour shuttle, it just not available until 1:45 pm. I felt like I was on that episode of Seinfeld where he tried to reserved a rental car.
+I...On our way back from vacation, we landed in Houston late with our connection flight the next day. Since this hotel offers 24 hour airport shuttle service (20 minutes away), we stayed here. At check-in I asked the lady at the front desk if we need to reserve the airport shuttle for the next day. Her response was, "oh no sir, it's available 24 hours a day." At 12:30 pm the next day, I went to the front desk and requested the shuttle for around 1:00 pm. The front desk supervisor tells me that the shuttle will not be available until 1:45 pm because they have an airline crew staying there and that's when they need it by and the shuttle can not be used before then just in case the airline calls them in early.I asked them how my family of 7 is going to get to the airport so we won't miss our flights to which she replies that she can call me a cab. I asked if they were going to pay for the cab since they advertise 24 hour airport shuttle which is not available. She replied that "there is nothing I can do." Then she started to argue with me that they do have a 24 hour shuttle, it just not available until 1:45 pm. I felt like I was on that episode of Seinfeld where he tried to reserved a rental car.I asked to speak to a manager to which she replied no. My frustration built after arguing back and forth and I softly called her a name under my breath. At that point she went ballistic and start screaming at me and then called the POLICE saying I was trespassing since it's now past checkout time.I called their guest relations and filed a report to complain about her actions. However, they still could do nothing about getting my family and I to the airport. I was left with the impression that nothing will be done about it.We got an Uber ride for $35 and was able to make our flight. IHG/Holiday Inn, you lost a customer for life that had a $35 solution.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r484645760-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484645760</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Convenient location right next to I-45 on a relatively low-traffic street. The facilities seem older but like they have been remodeled recently. I don't know if it was because my room was by the stairwell or just bad luck, but I could hear stomping/noise above my room a couple nights that was annoying. Decent workout room for a HIE (all the equipment plus the TV actually worked), and then lobby area is very nice. Had some issues with cleanliness and service that I left feedback to the hotel directly about, nothing unfixable. I couldn't get the right gate to open after-hours with my key, but there is a good amount of ungated parking as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Convenient location right next to I-45 on a relatively low-traffic street. The facilities seem older but like they have been remodeled recently. I don't know if it was because my room was by the stairwell or just bad luck, but I could hear stomping/noise above my room a couple nights that was annoying. Decent workout room for a HIE (all the equipment plus the TV actually worked), and then lobby area is very nice. Had some issues with cleanliness and service that I left feedback to the hotel directly about, nothing unfixable. I couldn't get the right gate to open after-hours with my key, but there is a good amount of ungated parking as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r479293024-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479293024</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Not the best first impression</t>
+  </si>
+  <si>
+    <t>I stay at a lot of IHG properties. In short, this one was disappointing. Service is friendly and helpful but the hotel simply seemed a bit old and cheap and therefore rated below average. I've stayed at much nicer HI Expresses. One put off was the the hotel is two buildings. If you are on floor 5, that's floor two Building B.  Not a huge deal, just an unexpected surprise. The breakfast was standard fare and fine. The rooms were just ok.  Ceiling fan was a nice touch I suppose.  Pillows were cheap foam pillows like I'd expect at lesser hotels. Rooms were fairly quiet, which is good. The exercise room was small but had two treadmills, one elliptical, one recumbent bike and a bench with some free weights. Shuttle service was helpful.  Restaurants nearby.Overall, it's an OK place to stay if convenient. Next time in the area however I might be inclined to try someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I stay at a lot of IHG properties. In short, this one was disappointing. Service is friendly and helpful but the hotel simply seemed a bit old and cheap and therefore rated below average. I've stayed at much nicer HI Expresses. One put off was the the hotel is two buildings. If you are on floor 5, that's floor two Building B.  Not a huge deal, just an unexpected surprise. The breakfast was standard fare and fine. The rooms were just ok.  Ceiling fan was a nice touch I suppose.  Pillows were cheap foam pillows like I'd expect at lesser hotels. Rooms were fairly quiet, which is good. The exercise room was small but had two treadmills, one elliptical, one recumbent bike and a bench with some free weights. Shuttle service was helpful.  Restaurants nearby.Overall, it's an OK place to stay if convenient. Next time in the area however I might be inclined to try someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r464248728-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464248728</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent Customer service</t>
+  </si>
+  <si>
+    <t>I wanted to praise 2 employees who helped us out tremendously when we arrived in Houston at the Holiday Inn Express on Feb 22. We arrived from Vancovuer, Canada and the taxi driver did not take all our luggage out of the car when he left us.  My husband’s briefcase was left with his computer and passport and numerous important items.  Nekol at the front desk and Dexter, the shutter driver stepped into action.  Nekol googled the taxi company within minutes, was able to get a hold of someone and track down the driver after 30 min.  Dexter assisted my husband by flagging down another Yellow cab, spoke to that driver who also tried to help. He calmed my husband down immediately and stayed positive.   Lucky we were able to get the briefcase back and Nekol phoned me to ensure she had received it after it was located and we went shopping.  Both really saved the day and made us feel comfortable and assured that it will all work out.
+I wanted to acknowledge both employees for their tremendous customer service and saving our vacation. We had to overnight in Houston before going to Honduras and if they had not rescued us, we likely would not have be able to leave.  Dexter got us to the airport the next day and on we went on holidays and we are now back home in Canada.
+In addition, the hotel we stayed...I wanted to praise 2 employees who helped us out tremendously when we arrived in Houston at the Holiday Inn Express on Feb 22. We arrived from Vancovuer, Canada and the taxi driver did not take all our luggage out of the car when he left us.  My husband’s briefcase was left with his computer and passport and numerous important items.  Nekol at the front desk and Dexter, the shutter driver stepped into action.  Nekol googled the taxi company within minutes, was able to get a hold of someone and track down the driver after 30 min.  Dexter assisted my husband by flagging down another Yellow cab, spoke to that driver who also tried to help. He calmed my husband down immediately and stayed positive.   Lucky we were able to get the briefcase back and Nekol phoned me to ensure she had received it after it was located and we went shopping.  Both really saved the day and made us feel comfortable and assured that it will all work out.I wanted to acknowledge both employees for their tremendous customer service and saving our vacation. We had to overnight in Houston before going to Honduras and if they had not rescued us, we likely would not have be able to leave.  Dexter got us to the airport the next day and on we went on holidays and we are now back home in Canada.In addition, the hotel we stayed at was very clean, had a great breakfast and we were able to get into the room a bit earlier thanks to Nekol.We will always remember these special employees and hope they get some recognition within.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I wanted to praise 2 employees who helped us out tremendously when we arrived in Houston at the Holiday Inn Express on Feb 22. We arrived from Vancovuer, Canada and the taxi driver did not take all our luggage out of the car when he left us.  My husband’s briefcase was left with his computer and passport and numerous important items.  Nekol at the front desk and Dexter, the shutter driver stepped into action.  Nekol googled the taxi company within minutes, was able to get a hold of someone and track down the driver after 30 min.  Dexter assisted my husband by flagging down another Yellow cab, spoke to that driver who also tried to help. He calmed my husband down immediately and stayed positive.   Lucky we were able to get the briefcase back and Nekol phoned me to ensure she had received it after it was located and we went shopping.  Both really saved the day and made us feel comfortable and assured that it will all work out.
+I wanted to acknowledge both employees for their tremendous customer service and saving our vacation. We had to overnight in Houston before going to Honduras and if they had not rescued us, we likely would not have be able to leave.  Dexter got us to the airport the next day and on we went on holidays and we are now back home in Canada.
+In addition, the hotel we stayed...I wanted to praise 2 employees who helped us out tremendously when we arrived in Houston at the Holiday Inn Express on Feb 22. We arrived from Vancovuer, Canada and the taxi driver did not take all our luggage out of the car when he left us.  My husband’s briefcase was left with his computer and passport and numerous important items.  Nekol at the front desk and Dexter, the shutter driver stepped into action.  Nekol googled the taxi company within minutes, was able to get a hold of someone and track down the driver after 30 min.  Dexter assisted my husband by flagging down another Yellow cab, spoke to that driver who also tried to help. He calmed my husband down immediately and stayed positive.   Lucky we were able to get the briefcase back and Nekol phoned me to ensure she had received it after it was located and we went shopping.  Both really saved the day and made us feel comfortable and assured that it will all work out.I wanted to acknowledge both employees for their tremendous customer service and saving our vacation. We had to overnight in Houston before going to Honduras and if they had not rescued us, we likely would not have be able to leave.  Dexter got us to the airport the next day and on we went on holidays and we are now back home in Canada.In addition, the hotel we stayed at was very clean, had a great breakfast and we were able to get into the room a bit earlier thanks to Nekol.We will always remember these special employees and hope they get some recognition within.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r449301573-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449301573</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Practically Brand New and a Great Location!</t>
+  </si>
+  <si>
+    <t>This is a great location, for easy on/off freeway access, right off I-45 North.  Couldn't believe the "bang we got for our bucks"!  My wife and I got a suite, with TV in each room and the price was excellent.  It came with a Free Wi-Fi / Internet for the price/room we picked.  Also, had Free Hot Breakfast.  The Front Desk Mgr. on duty was "super".   She even, helped googled me in to the hotel(I had gotten lost!)  Since this hotel was practically new(1 year old), I had no complaints whatsoever about the property. The restaurant area is super, with the walk-up staircase to the second floor.  Makes you feel like you're in a luxury hotel.   There is "no shortage" of restaurants nearby.  This hotel definitely served it's purpose and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This is a great location, for easy on/off freeway access, right off I-45 North.  Couldn't believe the "bang we got for our bucks"!  My wife and I got a suite, with TV in each room and the price was excellent.  It came with a Free Wi-Fi / Internet for the price/room we picked.  Also, had Free Hot Breakfast.  The Front Desk Mgr. on duty was "super".   She even, helped googled me in to the hotel(I had gotten lost!)  Since this hotel was practically new(1 year old), I had no complaints whatsoever about the property. The restaurant area is super, with the walk-up staircase to the second floor.  Makes you feel like you're in a luxury hotel.   There is "no shortage" of restaurants nearby.  This hotel definitely served it's purpose and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r430418721-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430418721</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>The staff here is excellent!!!!!</t>
+  </si>
+  <si>
+    <t>We stayed here 2 separate times on our cruise vacation. The first was a Saturday. I called the hotel at 10am to see if they had a room available bc our flight was early. They did. So we went and checked in. How nice is that. Most places would say no. The lady up front was so nice. The second stay was a Sunday night  again we got to hotel early about noon this time. Check in was a breeze. I had a problem with tickets I ordered for the football game. I couldn't access them in the business center. So I asked the front desk for help. She let me back in the office to use that computer. It worked.  So happy we chose this hotel. Very clean. Your front desk staff rocks!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>HI Express H, General Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here 2 separate times on our cruise vacation. The first was a Saturday. I called the hotel at 10am to see if they had a room available bc our flight was early. They did. So we went and checked in. How nice is that. Most places would say no. The lady up front was so nice. The second stay was a Sunday night  again we got to hotel early about noon this time. Check in was a breeze. I had a problem with tickets I ordered for the football game. I couldn't access them in the business center. So I asked the front desk for help. She let me back in the office to use that computer. It worked.  So happy we chose this hotel. Very clean. Your front desk staff rocks!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r363209439-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363209439</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Great Location and Helpful Staff</t>
+  </si>
+  <si>
+    <t>This is a great location in North Houston, right off of I-45 but not in an overly crowded area of the city. I was at this location for 5 nights and Quentin, Daryl, Ashley, Jatorra and Lilly took great care of me and my team. They went the extra mile by providing bedding and helping me reprogram my "fitbit". These five in particular get gold stars. You are walking distance from, Popeyes, Jack-in-the-Box and Whataburger. There are also many sit-down restaurants in the area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r266521334-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266521334</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Great stay in N Houston</t>
+  </si>
+  <si>
+    <t>We planned to stop N of Houston and this was the perfect place, right off I 45. Staff was very helpful and friendly with our check in and questions. The work out room was well stocked and available 24/7. We did have breakfast and it was tasty and hot.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>HIExpressSales, Director of Sales at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>We planned to stop N of Houston and this was the perfect place, right off I 45. Staff was very helpful and friendly with our check in and questions. The work out room was well stocked and available 24/7. We did have breakfast and it was tasty and hot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r259063903-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259063903</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Good location for Bush Intercontinental</t>
+  </si>
+  <si>
+    <t>The staff was awesome, the two building layout isn't the most convenient. In good shape overall but some areas really needed cleaning. Free coffee and cookies most of the day.  Good price for the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The staff was awesome, the two building layout isn't the most convenient. In good shape overall but some areas really needed cleaning. Free coffee and cookies most of the day.  Good price for the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r251558650-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251558650</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Awesome location and great staff</t>
+  </si>
+  <si>
+    <t>Convenient location. Freshly renovated and looks good. Accessibility to the freeway and most everywhere is great. Close to the airport and some great restaurants, There was a great tex mex and sushi place close by. Great security. Place was lock down after hours.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r246510381-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246510381</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Not a hotel for a family stay</t>
+  </si>
+  <si>
+    <t>Although I personally didn't have any problems, this hotel is in a neighborhood where they feel the need for the parking lot to be fenced and gated, using your room card for access after a certain hour. The front areas of the hotel were nice, but the room was very worn (bad paint on the bathroom door that wouldn't close, etc.), plus I had a roach crawl across my foot while shaving. One bright spot was the staff - they were as nice and professional as any I've ever seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIExpressSales, Director of Sales at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Although I personally didn't have any problems, this hotel is in a neighborhood where they feel the need for the parking lot to be fenced and gated, using your room card for access after a certain hour. The front areas of the hotel were nice, but the room was very worn (bad paint on the bathroom door that wouldn't close, etc.), plus I had a roach crawl across my foot while shaving. One bright spot was the staff - they were as nice and professional as any I've ever seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r239312236-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239312236</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Front desk were exceptional</t>
+  </si>
+  <si>
+    <t>When I got to my room the door had been propped open and there was a wet bathmat on the bed...ewww... went to the front desk and was promptly assigned to a new room.  The rooms are showing a little wear and don't smell as fresh as newer Holiday Inn Express locations where I have stayed but when I got to the airport I realized I had left jewelry behind. I spoke with Marceta (may not be spelled correctly, sorry) and within ten minutes she called back to say housekeeping had turned my bracelets in.Can't thank you enough, both housekeeping for turning them in and the front desk for getting them packaged on the way to me!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded November 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2014</t>
+  </si>
+  <si>
+    <t>When I got to my room the door had been propped open and there was a wet bathmat on the bed...ewww... went to the front desk and was promptly assigned to a new room.  The rooms are showing a little wear and don't smell as fresh as newer Holiday Inn Express locations where I have stayed but when I got to the airport I realized I had left jewelry behind. I spoke with Marceta (may not be spelled correctly, sorry) and within ten minutes she called back to say housekeeping had turned my bracelets in.Can't thank you enough, both housekeeping for turning them in and the front desk for getting them packaged on the way to me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r235013977-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235013977</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Great place for Houston international airport</t>
+  </si>
+  <si>
+    <t>The hotel is only 15 minutes away from the airport so ideal for staying either before you fly or when you land. If necessary they have a shuttle to take you to or from the airport. Car park also gated for extra security.Around the hotel plenty of places to eat and Macys is about 5 mins drive away if you need any last minute shopping.The front desk team are very good, and efficient. We were provided with a late check out time when I mentioned the time of our flight. The hotel provides free cookies during the afternoon, and the breakfast is very good. Found all of the back up staff are very helpful too. Despite being close to a main road the rooms are relatively quiet, and we had a great nights sleep prior to our flight to London HeathrowMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>The hotel is only 15 minutes away from the airport so ideal for staying either before you fly or when you land. If necessary they have a shuttle to take you to or from the airport. Car park also gated for extra security.Around the hotel plenty of places to eat and Macys is about 5 mins drive away if you need any last minute shopping.The front desk team are very good, and efficient. We were provided with a late check out time when I mentioned the time of our flight. The hotel provides free cookies during the afternoon, and the breakfast is very good. Found all of the back up staff are very helpful too. Despite being close to a main road the rooms are relatively quiet, and we had a great nights sleep prior to our flight to London HeathrowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r193581748-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193581748</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff and comfortable room.</t>
+  </si>
+  <si>
+    <t>Got stuck overnight in Houston so I needed to book a room at the last minute.  Within a few minutes the hotel's shuttle arrived to pick me up and the trip only took about 15 min.  The staff, both in the shuttle and at the hotel, were courteous and prompt.  Check-in was a breeze, and I think I was booked in the suite building which is separate from the main building.  Very little noise, the lobbies of both buildings were clean.  The safety bar/lock on my door was slightly wobbly.  The room was very clean and the bed was comfortable.  Everything was in working order.  A small bonus was DirecTV -- a guide that works and programming that isn't horrible!  I probably wouldn't choose it as my first option (many other hotels in the area at or under per diem were already booked full) but as a fall-back it was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Got stuck overnight in Houston so I needed to book a room at the last minute.  Within a few minutes the hotel's shuttle arrived to pick me up and the trip only took about 15 min.  The staff, both in the shuttle and at the hotel, were courteous and prompt.  Check-in was a breeze, and I think I was booked in the suite building which is separate from the main building.  Very little noise, the lobbies of both buildings were clean.  The safety bar/lock on my door was slightly wobbly.  The room was very clean and the bed was comfortable.  Everything was in working order.  A small bonus was DirecTV -- a guide that works and programming that isn't horrible!  I probably wouldn't choose it as my first option (many other hotels in the area at or under per diem were already booked full) but as a fall-back it was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r193116211-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193116211</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>25 minutes from airport</t>
+  </si>
+  <si>
+    <t>Standard holiday inn express. We just used it as a place to sleep between flightsClean room, comfortable bed. Standard holiday inn express breakfast.Shuttle only runs once an hour and takes 20 -30 minutes each way. We called for the shuttle and while waiting the shuttle for the Holiday Inn Express EAST made 3 roundtrips picking up new groups from our stop each way. So if you want quicker shuttle service stay at the EAST location of this chain.  Or at least call the hotel as soon as your plane touches down.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Standard holiday inn express. We just used it as a place to sleep between flightsClean room, comfortable bed. Standard holiday inn express breakfast.Shuttle only runs once an hour and takes 20 -30 minutes each way. We called for the shuttle and while waiting the shuttle for the Holiday Inn Express EAST made 3 roundtrips picking up new groups from our stop each way. So if you want quicker shuttle service stay at the EAST location of this chain.  Or at least call the hotel as soon as your plane touches down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r171058903-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171058903</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Offers Shuttle Service! Very Nice Staff</t>
+  </si>
+  <si>
+    <t>I have to say after doing a ton of research on hotels in the area, this was one hotel that offered free shuttle service which was very convineinet for me. Location was great right off the interstate and close to everything I needed to get to. Staff was very friendly and nice. Will stay again.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r153442438-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153442438</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Wouldn't stay more than a night</t>
+  </si>
+  <si>
+    <t>The lobby and breakfast area are updated very nicely, although most of the tall tables are lopsided and lean horribly.  I arrived after dark and was glad I ate closer to Houston, your choices nearby are limited to Whataburger, Jack in the Box and Cracker Barrel.  
+The room was large, but it was a handicap room.  It looked like they had tried to do some updates, but hadn't taken the time or the money to make them look the best they could. The painting seemed fairly new but hadn't been done with much attention to detail.  The furnishings seemed like a mixture of new and old.  The tv in the room was a very nice flat screen though and it did have a small microwave and fridge.  The bed had a mattress protector on it that made you feel like you were sleeping on a plastic sheet, and it sounded that way when you crawled into bed, too.  The pillows were old and very lumpy.  I couldn't tell a difference between the supposedly soft and firm pillows.  
+I turned the old wall style air conditioner on in the room but it never cooled off.  The ceiling fan made lots of noise and the was a high pitched buzzing from the air conditioner that made me think it wasn't in working condition.
+The biggest dissapointment for me was the shower.  After a long day of traveling I just wanted a decent...The lobby and breakfast area are updated very nicely, although most of the tall tables are lopsided and lean horribly.  I arrived after dark and was glad I ate closer to Houston, your choices nearby are limited to Whataburger, Jack in the Box and Cracker Barrel.  The room was large, but it was a handicap room.  It looked like they had tried to do some updates, but hadn't taken the time or the money to make them look the best they could. The painting seemed fairly new but hadn't been done with much attention to detail.  The furnishings seemed like a mixture of new and old.  The tv in the room was a very nice flat screen though and it did have a small microwave and fridge.  The bed had a mattress protector on it that made you feel like you were sleeping on a plastic sheet, and it sounded that way when you crawled into bed, too.  The pillows were old and very lumpy.  I couldn't tell a difference between the supposedly soft and firm pillows.  I turned the old wall style air conditioner on in the room but it never cooled off.  The ceiling fan made lots of noise and the was a high pitched buzzing from the air conditioner that made me think it wasn't in working condition.The biggest dissapointment for me was the shower.  After a long day of traveling I just wanted a decent shower.  The water pressure was completely non-existent and trickled out at best.  I would stay for a night, but for $135 it was not worth the price.  This was definitely more like a $85 a night hotel at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>The lobby and breakfast area are updated very nicely, although most of the tall tables are lopsided and lean horribly.  I arrived after dark and was glad I ate closer to Houston, your choices nearby are limited to Whataburger, Jack in the Box and Cracker Barrel.  
+The room was large, but it was a handicap room.  It looked like they had tried to do some updates, but hadn't taken the time or the money to make them look the best they could. The painting seemed fairly new but hadn't been done with much attention to detail.  The furnishings seemed like a mixture of new and old.  The tv in the room was a very nice flat screen though and it did have a small microwave and fridge.  The bed had a mattress protector on it that made you feel like you were sleeping on a plastic sheet, and it sounded that way when you crawled into bed, too.  The pillows were old and very lumpy.  I couldn't tell a difference between the supposedly soft and firm pillows.  
+I turned the old wall style air conditioner on in the room but it never cooled off.  The ceiling fan made lots of noise and the was a high pitched buzzing from the air conditioner that made me think it wasn't in working condition.
+The biggest dissapointment for me was the shower.  After a long day of traveling I just wanted a decent...The lobby and breakfast area are updated very nicely, although most of the tall tables are lopsided and lean horribly.  I arrived after dark and was glad I ate closer to Houston, your choices nearby are limited to Whataburger, Jack in the Box and Cracker Barrel.  The room was large, but it was a handicap room.  It looked like they had tried to do some updates, but hadn't taken the time or the money to make them look the best they could. The painting seemed fairly new but hadn't been done with much attention to detail.  The furnishings seemed like a mixture of new and old.  The tv in the room was a very nice flat screen though and it did have a small microwave and fridge.  The bed had a mattress protector on it that made you feel like you were sleeping on a plastic sheet, and it sounded that way when you crawled into bed, too.  The pillows were old and very lumpy.  I couldn't tell a difference between the supposedly soft and firm pillows.  I turned the old wall style air conditioner on in the room but it never cooled off.  The ceiling fan made lots of noise and the was a high pitched buzzing from the air conditioner that made me think it wasn't in working condition.The biggest dissapointment for me was the shower.  After a long day of traveling I just wanted a decent shower.  The water pressure was completely non-existent and trickled out at best.  I would stay for a night, but for $135 it was not worth the price.  This was definitely more like a $85 a night hotel at best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r151203533-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151203533</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Really wished it could have been better.</t>
+  </si>
+  <si>
+    <t>This HI Express is located in a scetchy area with a gated parking area that requires your room key to access after dark. My room (104l was very worn and just looked dirty. The bed was comfortable and sheets were clean. There is a very nice flat screen TV, so that is a plus. All in all, this would be as good $60-$75 hotel, but falls short of the Holiday Inn brand.Also, HI Inn express all offer breakfast with the stay so I'm not clear how this is a special offer for this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded February 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2013</t>
+  </si>
+  <si>
+    <t>This HI Express is located in a scetchy area with a gated parking area that requires your room key to access after dark. My room (104l was very worn and just looked dirty. The bed was comfortable and sheets were clean. There is a very nice flat screen TV, so that is a plus. All in all, this would be as good $60-$75 hotel, but falls short of the Holiday Inn brand.Also, HI Inn express all offer breakfast with the stay so I'm not clear how this is a special offer for this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r135908555-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135908555</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Not a good option for the airport</t>
+  </si>
+  <si>
+    <t>Chose this because the location was convenient for a colleague picking up the next day. But don't advertise as an airport hotel with shuttle if you are going to severely limit that service. My flight in was late, arrived at Bush at 10:30 pm. Called and was told their shuttle stops at 10pm. No apology, no suggestion of getting a cab, just "The shuttle runs 6am-10pm ." My cab ride cost me $40, and the hours weren't posted on their website. Starting at 6am for a major metro airport is not acceptable either, as you couldn't make an early flight. I checked in and room is ok, but a bit shabby and worn, especially the door and trim in the bathroom. No shampoo so I had to call down to have someone bring it up, and there was a long blonde hair in the sink (definitely not mine!!) I would find another option if you need to be near the airport and expect free shuttle service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Chose this because the location was convenient for a colleague picking up the next day. But don't advertise as an airport hotel with shuttle if you are going to severely limit that service. My flight in was late, arrived at Bush at 10:30 pm. Called and was told their shuttle stops at 10pm. No apology, no suggestion of getting a cab, just "The shuttle runs 6am-10pm ." My cab ride cost me $40, and the hours weren't posted on their website. Starting at 6am for a major metro airport is not acceptable either, as you couldn't make an early flight. I checked in and room is ok, but a bit shabby and worn, especially the door and trim in the bathroom. No shampoo so I had to call down to have someone bring it up, and there was a long blonde hair in the sink (definitely not mine!!) I would find another option if you need to be near the airport and expect free shuttle service.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1076,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1108,1460 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_328.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_328.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r595590473-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223178</t>
+  </si>
+  <si>
+    <t>595590473</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Perfect night stay before international travel</t>
+  </si>
+  <si>
+    <t>We stayed at this HIE a night prior to flying out of the country.  We were very thankful the hotel allowed us to park our car there until we returned.  Everyone at the hotel were super friendly and kind.  Hotel picked us up when we returned.  Our battery died due to inactivity for over 22 days.  After 30+ hours flights, we are very thankful Bernie, HI driver, went out of his ways to help us out.  The staffs here were some of the nicest and courteous hotel staffs we’ve encountered.  Thank you so much again.  We will definitely be back when we are traveling in Houston area.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r583495568-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583495568</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>In need of much updating and TLC...</t>
+  </si>
+  <si>
+    <t>Property is a ghost of a much nicer past... the rooms are well, well wornen as are all the public areas.  The staff is doing the best it can with what is left.  For example our AC started to make very loud noises and the front desk staff readily admitted the AC units were so old that needed to be replaced not repaired... we were moved to a suite but the pull out couch looked like something you would drop off at a thrift store. And in the morning the eating areas AC could not cool the space with the morning sun coming in... Great location but the property is in need  of  a significant makeover to restore it to proper quality level of an IHG property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Property is a ghost of a much nicer past... the rooms are well, well wornen as are all the public areas.  The staff is doing the best it can with what is left.  For example our AC started to make very loud noises and the front desk staff readily admitted the AC units were so old that needed to be replaced not repaired... we were moved to a suite but the pull out couch looked like something you would drop off at a thrift store. And in the morning the eating areas AC could not cool the space with the morning sun coming in... Great location but the property is in need  of  a significant makeover to restore it to proper quality level of an IHG property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r573734815-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223178</t>
   </si>
   <si>
     <t>573734815</t>
@@ -235,9 +277,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded August 24, 2017</t>
   </si>
   <si>
@@ -249,6 +288,60 @@
 I...On our way back from vacation, we landed in Houston late with our connection flight the next day. Since this hotel offers 24 hour airport shuttle service (20 minutes away), we stayed here. At check-in I asked the lady at the front desk if we need to reserve the airport shuttle for the next day. Her response was, "oh no sir, it's available 24 hours a day." At 12:30 pm the next day, I went to the front desk and requested the shuttle for around 1:00 pm. The front desk supervisor tells me that the shuttle will not be available until 1:45 pm because they have an airline crew staying there and that's when they need it by and the shuttle can not be used before then just in case the airline calls them in early.I asked them how my family of 7 is going to get to the airport so we won't miss our flights to which she replies that she can call me a cab. I asked if they were going to pay for the cab since they advertise 24 hour airport shuttle which is not available. She replied that "there is nothing I can do." Then she started to argue with me that they do have a 24 hour shuttle, it just not available until 1:45 pm. I felt like I was on that episode of Seinfeld where he tried to reserved a rental car.I asked to speak to a manager to which she replied no. My frustration built after arguing back and forth and I softly called her a name under my breath. At that point she went ballistic and start screaming at me and then called the POLICE saying I was trespassing since it's now past checkout time.I called their guest relations and filed a report to complain about her actions. However, they still could do nothing about getting my family and I to the airport. I was left with the impression that nothing will be done about it.We got an Uber ride for $35 and was able to make our flight. IHG/Holiday Inn, you lost a customer for life that had a $35 solution.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r501284306-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501284306</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Just the place we needed</t>
+  </si>
+  <si>
+    <t>We needed a hotel close to the George Bush Intercontinental because we had an early flight the next morning. Check in/out went flawlessly, clerks were friendly and quick. The room was fresh and quiet even though we went to bed early. clean bed and hot shower and we were happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>We needed a hotel close to the George Bush Intercontinental because we had an early flight the next morning. Check in/out went flawlessly, clerks were friendly and quick. The room was fresh and quiet even though we went to bed early. clean bed and hot shower and we were happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r492556720-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492556720</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Standard Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Travelled to Houston for an overnight trip and stayed here.  Ended up having to extend my stay and stayed here again since I knew what I was getting.DirectTV television.  WiFi with good speeds.  Excellent work desk space for business travellers.  Decent sized rooms with couch and wet bar.Ceiling fans over beds are a big plus.  Makes it easier to fall asleep when it is just like home.Clean, a few flaws (see pictures). Staff was very friendly and outgoing.  Overall will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Travelled to Houston for an overnight trip and stayed here.  Ended up having to extend my stay and stayed here again since I knew what I was getting.DirectTV television.  WiFi with good speeds.  Excellent work desk space for business travellers.  Decent sized rooms with couch and wet bar.Ceiling fans over beds are a big plus.  Makes it easier to fall asleep when it is just like home.Clean, a few flaws (see pictures). Staff was very friendly and outgoing.  Overall will stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r484645760-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
@@ -262,9 +355,6 @@
   </si>
   <si>
     <t>Convenient location right next to I-45 on a relatively low-traffic street. The facilities seem older but like they have been remodeled recently. I don't know if it was because my room was by the stairwell or just bad luck, but I could hear stomping/noise above my room a couple nights that was annoying. Decent workout room for a HIE (all the equipment plus the TV actually worked), and then lobby area is very nice. Had some issues with cleanliness and service that I left feedback to the hotel directly about, nothing unfixable. I couldn't get the right gate to open after-hours with my key, but there is a good amount of ungated parking as well.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2017</t>
   </si>
   <si>
     <t>Management response:Responded May 17, 2017</t>
@@ -331,6 +421,39 @@
 In addition, the hotel we stayed...I wanted to praise 2 employees who helped us out tremendously when we arrived in Houston at the Holiday Inn Express on Feb 22. We arrived from Vancovuer, Canada and the taxi driver did not take all our luggage out of the car when he left us.  My husband’s briefcase was left with his computer and passport and numerous important items.  Nekol at the front desk and Dexter, the shutter driver stepped into action.  Nekol googled the taxi company within minutes, was able to get a hold of someone and track down the driver after 30 min.  Dexter assisted my husband by flagging down another Yellow cab, spoke to that driver who also tried to help. He calmed my husband down immediately and stayed positive.   Lucky we were able to get the briefcase back and Nekol phoned me to ensure she had received it after it was located and we went shopping.  Both really saved the day and made us feel comfortable and assured that it will all work out.I wanted to acknowledge both employees for their tremendous customer service and saving our vacation. We had to overnight in Houston before going to Honduras and if they had not rescued us, we likely would not have be able to leave.  Dexter got us to the airport the next day and on we went on holidays and we are now back home in Canada.In addition, the hotel we stayed at was very clean, had a great breakfast and we were able to get into the room a bit earlier thanks to Nekol.We will always remember these special employees and hope they get some recognition within.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r458306168-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458306168</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Experience</t>
+  </si>
+  <si>
+    <t>The hotel was in a nice location.  The staff did an outstanding job.  Upon my arrival I was met with friendly and a professional staff.  The atmosphere was comfortable and pleasant.  The check in was simple and quick.  The rooms were clean and the amenities were acceptable.  I normally don't eat breakfast at the hotel, but the food was good and the staff assisted with any help that I needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r454234219-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454234219</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel at a great location near IAH</t>
+  </si>
+  <si>
+    <t>This hotel is a great choice nearby IAH.  It's close enough to IAH but far enough not to have that "airport hotel" feel.  Rooms are large and clean, and staff is easy to work with and fixed a reservation error quickly.  A lot of food and shopping choices nearby and closeness to I-45 make it easy to get on the highway very quickly.This will definitely be my top choice for IAH area hotels.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r449301573-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
@@ -346,9 +469,6 @@
     <t>This is a great location, for easy on/off freeway access, right off I-45 North.  Couldn't believe the "bang we got for our bucks"!  My wife and I got a suite, with TV in each room and the price was excellent.  It came with a Free Wi-Fi / Internet for the price/room we picked.  Also, had Free Hot Breakfast.  The Front Desk Mgr. on duty was "super".   She even, helped googled me in to the hotel(I had gotten lost!)  Since this hotel was practically new(1 year old), I had no complaints whatsoever about the property. The restaurant area is super, with the walk-up staircase to the second floor.  Makes you feel like you're in a luxury hotel.   There is "no shortage" of restaurants nearby.  This hotel definitely served it's purpose and I would definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>This is a great location, for easy on/off freeway access, right off I-45 North.  Couldn't believe the "bang we got for our bucks"!  My wife and I got a suite, with TV in each room and the price was excellent.  It came with a Free Wi-Fi / Internet for the price/room we picked.  Also, had Free Hot Breakfast.  The Front Desk Mgr. on duty was "super".   She even, helped googled me in to the hotel(I had gotten lost!)  Since this hotel was practically new(1 year old), I had no complaints whatsoever about the property. The restaurant area is super, with the walk-up staircase to the second floor.  Makes you feel like you're in a luxury hotel.   There is "no shortage" of restaurants nearby.  This hotel definitely served it's purpose and I would definitely stay here again.More</t>
   </si>
   <si>
@@ -397,6 +517,48 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r357171846-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357171846</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service, Grateful for Upgrade!</t>
+  </si>
+  <si>
+    <t>We had a pretty horrible experience at the hotel we went to prior to this one the same night. The last hotel had smoking rooms and smelled terrible. I called this hotel and they had an opening for us for a suite and was so incredibly accommodating - the front desk associate even upgraded our room for free - so thankful. The hotel itself is fine. It's easy access on and off I45. It has a gated parking lot - which may tell you a little about the area - not the BEST but I definitely do not feel unsafe at all. Actually, I might even feel more safe than my own neighborhood in Dallas. (I know, really.) The bed was perfectly made. The room was a good size. The whole hotel smelled clean and is really inviting from the front door. I will adjust my review if I feel it's not what I've stated above.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We had a pretty horrible experience at the hotel we went to prior to this one the same night. The last hotel had smoking rooms and smelled terrible. I called this hotel and they had an opening for us for a suite and was so incredibly accommodating - the front desk associate even upgraded our room for free - so thankful. The hotel itself is fine. It's easy access on and off I45. It has a gated parking lot - which may tell you a little about the area - not the BEST but I definitely do not feel unsafe at all. Actually, I might even feel more safe than my own neighborhood in Dallas. (I know, really.) The bed was perfectly made. The room was a good size. The whole hotel smelled clean and is really inviting from the front door. I will adjust my review if I feel it's not what I've stated above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r277675437-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277675437</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Clean and dependable.</t>
+  </si>
+  <si>
+    <t>This hotel is easy to get to, right off the highway, located near several fast food options and a Cracker Barrel, and has a gated parking lot for security.  I learned (after the fact) that this area of the city isn't the safest, but I never felt unsafe here.  The room was clean, the beds are comfortable, there's breakfast in the morning and cookies in the afternoons.  Free newspaper and free wifi, plus a fitness room and an outdoor pool.  I'd rate it a 5, but for the area - getting around this close to the freeway is kind of a pain, and once you've exhausted your appetite for fast food, there's nothing else within walking distance.  The hotel itself, however - no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This hotel is easy to get to, right off the highway, located near several fast food options and a Cracker Barrel, and has a gated parking lot for security.  I learned (after the fact) that this area of the city isn't the safest, but I never felt unsafe here.  The room was clean, the beds are comfortable, there's breakfast in the morning and cookies in the afternoons.  Free newspaper and free wifi, plus a fitness room and an outdoor pool.  I'd rate it a 5, but for the area - getting around this close to the freeway is kind of a pain, and once you've exhausted your appetite for fast food, there's nothing else within walking distance.  The hotel itself, however - no complaints.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r266521334-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
@@ -463,6 +625,42 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r249433175-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249433175</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>one night stand</t>
+  </si>
+  <si>
+    <t>This hotel is well located and easy to get to.  There is a Whataburger and Cracker Barrel right next door.  I did not stay there long enough to determine what the area was like.  Our room was clean and very quiet.  They had their typical complimentary hot breakfast that I find to be quite sufficient and enjoyable.  The only complaint I have is their shuttle only runs until 10 pm.  We got in at 10:15 and had to get a cab.  With the tip, it cost me $37.00.  I expected better from Holiday Inn.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r247376747-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247376747</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks, Loved it! Some colleagues told me that its not in a safe area(in ghetto area). I am from Sacramento, Ca and I don't know what these crackers talking about. Front desk and management were awesome and friendly. The courtesy shuttle was good, but u gotta wait a while if the shuttle was heading to the airport. Complimentary breakfast was good. There is a lot of decent places to eat within walking distances. Popeyes, Whataburger, Jack in the box, cracker barrel, Church's chicken, Joe's crab shack, Saltgrass, Zio's Italian kitchen, Papasito's(highly recommend)!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r246510381-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
@@ -529,12 +727,51 @@
     <t>The hotel is only 15 minutes away from the airport so ideal for staying either before you fly or when you land. If necessary they have a shuttle to take you to or from the airport. Car park also gated for extra security.Around the hotel plenty of places to eat and Macys is about 5 mins drive away if you need any last minute shopping.The front desk team are very good, and efficient. We were provided with a late check out time when I mentioned the time of our flight. The hotel provides free cookies during the afternoon, and the breakfast is very good. Found all of the back up staff are very helpful too. Despite being close to a main road the rooms are relatively quiet, and we had a great nights sleep prior to our flight to London HeathrowMoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>The hotel is only 15 minutes away from the airport so ideal for staying either before you fly or when you land. If necessary they have a shuttle to take you to or from the airport. Car park also gated for extra security.Around the hotel plenty of places to eat and Macys is about 5 mins drive away if you need any last minute shopping.The front desk team are very good, and efficient. We were provided with a late check out time when I mentioned the time of our flight. The hotel provides free cookies during the afternoon, and the breakfast is very good. Found all of the back up staff are very helpful too. Despite being close to a main road the rooms are relatively quiet, and we had a great nights sleep prior to our flight to London HeathrowMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r208418535-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208418535</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Good location and value</t>
+  </si>
+  <si>
+    <t>I was very impressed by standards of quality and service at this Holiday Inn Express just off I45 North Houston. Friendly, quick check in, spacious room and free shuttle bus to anywhere within reasonable distance nearby. Great location and well done to all staff I interacted with who were helpful and attentive.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r206835894-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206835894</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>2014 Ironman</t>
+  </si>
+  <si>
+    <t>We were checked into a room that was not ready.  The suit was large.  Bedding comfortable.  There was some sort if misting deodorizer running when we opened the door.  All windows sealed closed so fresh air was not an option.  The room did not smell of smoke and was listed as no smoking.  House keeping missed the fact that a previous guest had spilled coffee in the tray containing the coffee supplies.  The fact she did not speak English made it interesting explaining what was wrong.  Did not use the pool or hoot tub.  The breakfast area is large and open with a lot of glass facing south with no shades, you will be hot if you sit there long.  Food was standard HINN. EX. fare.  Parking is in a secured parking lot.  Laundry on main floor, one washer, one drier, with soap available.  About average for a Holiday Inn Express, who stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North Intercontinental, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>We were checked into a room that was not ready.  The suit was large.  Bedding comfortable.  There was some sort if misting deodorizer running when we opened the door.  All windows sealed closed so fresh air was not an option.  The room did not smell of smoke and was listed as no smoking.  House keeping missed the fact that a previous guest had spilled coffee in the tray containing the coffee supplies.  The fact she did not speak English made it interesting explaining what was wrong.  Did not use the pool or hoot tub.  The breakfast area is large and open with a lot of glass facing south with no shades, you will be hot if you sit there long.  Food was standard HINN. EX. fare.  Parking is in a secured parking lot.  Laundry on main floor, one washer, one drier, with soap available.  About average for a Holiday Inn Express, who stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r193581748-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
   </si>
   <si>
@@ -599,6 +836,42 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r166393296-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166393296</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. The hotel was clean, the room was quiet, and the breakfast was good. The large, flat-screen television had a good selection of channels to watch, and the wireless internet connection was fast. I will stay here again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r160071634-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160071634</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Good business hotel</t>
+  </si>
+  <si>
+    <t>Stayed here two nights on business.  Hotel and rooms were clean and breakfast was very good.  Rooms were quiet, with little or no hall noise. Bed was very comfortable. Large flat panel tv with directv service.  Internet was free and fast.  A good choice for the area.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r153442438-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
@@ -683,6 +956,27 @@
   </si>
   <si>
     <t>Chose this because the location was convenient for a colleague picking up the next day. But don't advertise as an airport hotel with shuttle if you are going to severely limit that service. My flight in was late, arrived at Bush at 10:30 pm. Called and was told their shuttle stops at 10pm. No apology, no suggestion of getting a cab, just "The shuttle runs 6am-10pm ." My cab ride cost me $40, and the hours weren't posted on their website. Starting at 6am for a major metro airport is not acceptable either, as you couldn't make an early flight. I checked in and room is ok, but a bit shabby and worn, especially the door and trim in the bathroom. No shampoo so I had to call down to have someone bring it up, and there was a long blonde hair in the sink (definitely not mine!!) I would find another option if you need to be near the airport and expect free shuttle service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223178-r131645100-Holiday_Inn_Express_Suites_Houston_North_Intercontinental-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131645100</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>Plenty of room for a family of 5.</t>
+  </si>
+  <si>
+    <t>This place seemed pretty new. We could still smell paint in the room. The beds were very comfortable and there was a wood floor, nice tv, and a fridge and microwave. Great breakfast. My kids loved the pancake machine. Loved the chocolate chip cookies in the lobby in the evening. It was large enough for my family of 5. Of course the sofa bed was as comfortable as all sofa beds, but at least they have it. What was nice was that there was extra space (probably at least 6 feet between the base of the bed and the tv). Also it shared a parking lot with Whataburger, Cracker Barrel and Jack in the Box. Directly next to the highway (45). Things that weren't so great was a bathroom door that wouldn't close, my daughter slipped in the shower and fell (so be careful), and the hot tub wasn't hot. The swimming pool was actually warmer. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This place seemed pretty new. We could still smell paint in the room. The beds were very comfortable and there was a wood floor, nice tv, and a fridge and microwave. Great breakfast. My kids loved the pancake machine. Loved the chocolate chip cookies in the lobby in the evening. It was large enough for my family of 5. Of course the sofa bed was as comfortable as all sofa beds, but at least they have it. What was nice was that there was extra space (probably at least 6 feet between the base of the bed and the tv). Also it shared a parking lot with Whataburger, Cracker Barrel and Jack in the Box. Directly next to the highway (45). Things that weren't so great was a bathroom door that wouldn't close, my daughter slipped in the shower and fell (so be careful), and the hot tub wasn't hot. The swimming pool was actually warmer. I would stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1511,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1225,23 +1519,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1257,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1266,49 +1556,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1324,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1333,49 +1613,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1391,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1400,49 +1674,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
         <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1458,7 +1732,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1467,49 +1741,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
         <v>3</v>
       </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1534,25 +1808,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1569,10 +1843,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1588,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1597,32 +1875,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1630,10 +1908,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1649,7 +1931,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1658,49 +1940,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1716,7 +1998,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1725,43 +2007,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
       <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1798,22 +2086,22 @@
         <v>127</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1821,14 +2109,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
         <v>130</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1844,7 +2128,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1853,43 +2137,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="L12" t="s">
-        <v>136</v>
-      </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>129</v>
-      </c>
-      <c r="X12" t="s">
-        <v>130</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -1905,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1914,25 +2200,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
         <v>140</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>141</v>
       </c>
-      <c r="K13" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>144</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1950,7 +2236,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -1966,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1975,34 +2261,32 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="J14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" t="s">
-        <v>149</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2010,14 +2294,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2033,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2042,30 +2322,30 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
@@ -2078,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2100,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2109,34 +2389,32 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>4</v>
@@ -2147,7 +2425,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2163,7 +2441,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2172,41 +2450,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2214,7 +2488,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2230,7 +2504,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2239,53 +2513,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>182</v>
-      </c>
-      <c r="X18" t="s">
-        <v>183</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -2301,7 +2565,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2310,38 +2574,34 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2349,10 +2609,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" t="s">
+        <v>184</v>
+      </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -2368,7 +2632,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2377,53 +2641,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
@@ -2439,7 +2693,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2448,49 +2702,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>205</v>
-      </c>
-      <c r="X21" t="s">
-        <v>206</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2506,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2515,53 +2763,1058 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
         <v>214</v>
       </c>
-      <c r="X22" t="s">
+      <c r="L24" t="s">
         <v>215</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>296</v>
+      </c>
+      <c r="X35" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38093</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
